--- a/biology/Zoologie/Catoblepia_versitincta/Catoblepia_versitincta.xlsx
+++ b/biology/Zoologie/Catoblepia_versitincta/Catoblepia_versitincta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia versitincta est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae et du genre Catoblepia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Catoblepia versitincta a été décrit par Hans Ferdinand Emil Julius Stichel en 1902[1].
-Sous-espèces
-Catoblepia versitincta versitincta; présent au Surinam et en Guyane.
-Catoblepia versitincta mossi (Bristow, 1981); présent au Brésil[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia versitincta a été décrit par Hans Ferdinand Emil Julius Stichel en 1902.
+</t>
         </is>
       </c>
     </row>
@@ -541,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Catoblepia versitincta est un papillon aux ailes antérieures à bord costal très courbe et bord externe concave. Le dessus des ailes est de couleur marron avec une large bande orange aux ailes antérieures qui va de la moitié du bord costal à la moitié du bord externe puis forme une bande submarginale jusqu'à l'angle externe. Les ailes postérieures sont marron.
-Le revers est marron avec aux ailes antérieures un ocelle à l'apex et la même bande mais de couleur beige et aux ailes postérieures, deux ocelles.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catoblepia versitincta versitincta; présent au Surinam et en Guyane.
+Catoblepia versitincta mossi (Bristow, 1981); présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -573,12 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia versitincta est un papillon aux ailes antérieures à bord costal très courbe et bord externe concave. Le dessus des ailes est de couleur marron avec une large bande orange aux ailes antérieures qui va de la moitié du bord costal à la moitié du bord externe puis forme une bande submarginale jusqu'à l'angle externe. Les ailes postérieures sont marron.
+Le revers est marron avec aux ailes antérieures un ocelle à l'apex et la même bande mais de couleur beige et aux ailes postérieures, deux ocelles.
+</t>
         </is>
       </c>
     </row>
@@ -606,12 +627,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catoblepia versitincta est présent au Brésil, au Surinam et en Guyane[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia versitincta est présent au Brésil, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catoblepia_versitincta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_versitincta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
